--- a/docs/preproduction/formulaire_emprunt.xlsx
+++ b/docs/preproduction/formulaire_emprunt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6E4A66B-E185-43A0-92CE-396E38A995F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7895F65-00F9-408B-93DB-C176961407BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BBCE66B-EF7C-E745-A1E3-121C417FB53E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0BBCE66B-EF7C-E745-A1E3-121C417FB53E}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="238">
   <si>
     <t>MATÉRIEL - EXPÉRIENCE</t>
   </si>
@@ -761,12 +761,30 @@
   <si>
     <t>Note (retard, oubli, bris, etc.) : _____________________________________</t>
   </si>
+  <si>
+    <t>Direct input box</t>
+  </si>
+  <si>
+    <t>Projecteur ratio 0.3, 5000 lumens</t>
+  </si>
+  <si>
+    <t>carte d'aquisition</t>
+  </si>
+  <si>
+    <t>carte de capture</t>
+  </si>
+  <si>
+    <t>display port vers HDMI</t>
+  </si>
+  <si>
+    <t>extender réseaux</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -864,6 +882,19 @@
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1179,7 +1210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1327,6 +1358,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1355,13 +1390,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>96608</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>160223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>142327</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>205942</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1426,13 +1461,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>92866</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>138585</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1500,13 +1535,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>89466</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>84024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>135185</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>129743</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1574,13 +1609,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>83342</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>107158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>129061</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>152877</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1648,13 +1683,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>78581</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>126680</xdr:colOff>
-      <xdr:row>176</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>124300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1722,13 +1757,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>77219</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>96952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>122938</xdr:colOff>
-      <xdr:row>177</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>142671</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1796,7 +1831,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2092,14 +2127,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344768D1-A595-6742-B137-B5E47C37C808}">
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <pane ySplit="12" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" style="1" customWidth="1"/>
     <col min="2" max="2" width="99.125" style="1" customWidth="1"/>
@@ -3176,7 +3211,9 @@
       <c r="E75" s="6">
         <v>8</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="9">
+        <v>5</v>
+      </c>
       <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -3443,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="F97" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G97" s="16"/>
     </row>
@@ -3468,11 +3505,15 @@
     </row>
     <row r="99" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A99" s="18"/>
-      <c r="B99" s="15"/>
+      <c r="B99" s="103" t="s">
+        <v>233</v>
+      </c>
       <c r="C99" s="13"/>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
-      <c r="F99" s="87"/>
+      <c r="F99" s="87">
+        <v>1</v>
+      </c>
       <c r="G99" s="16"/>
     </row>
     <row r="101" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -3508,17 +3549,22 @@
       <c r="E102" s="60">
         <v>6</v>
       </c>
-      <c r="F102" s="9"/>
+      <c r="F102" s="9">
+        <v>1</v>
+      </c>
       <c r="G102" s="16"/>
     </row>
     <row r="103" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A103" s="24"/>
-      <c r="B103" s="15"/>
+      <c r="B103" s="103"/>
       <c r="C103" s="13"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15"/>
       <c r="F103" s="87"/>
       <c r="G103" s="16"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B104" s="105"/>
     </row>
     <row r="105" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A105" s="82" t="s">
@@ -3604,6 +3650,14 @@
         <v>2</v>
       </c>
       <c r="F109" s="79"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F110" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="112" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A112" s="70" t="s">
@@ -4363,178 +4417,183 @@
       </c>
       <c r="F161" s="79"/>
     </row>
-    <row r="164" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="14" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B162" s="106" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163" s="106" t="s">
+        <v>234</v>
+      </c>
+      <c r="F163" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B164" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="F164" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B165" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="F165" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A166" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B166" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="C164" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D164" s="6">
-        <v>30</v>
-      </c>
-      <c r="E164" s="6">
-        <v>40</v>
-      </c>
-      <c r="F164" s="9"/>
-    </row>
-    <row r="165" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A165" s="10"/>
-      <c r="B165" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="C165" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="D165" s="60">
-        <v>37</v>
-      </c>
-      <c r="E165" s="6">
-        <v>6</v>
-      </c>
-      <c r="F165" s="9"/>
-    </row>
-    <row r="166" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A166" s="12"/>
-      <c r="B166" s="6" t="s">
-        <v>212</v>
       </c>
       <c r="C166" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D166" s="60">
-        <v>55</v>
+      <c r="D166" s="6">
+        <v>30</v>
       </c>
       <c r="E166" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F166" s="9"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B167" s="71" t="s">
-        <v>213</v>
+    <row r="167" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A167" s="10"/>
+      <c r="B167" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="C167" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D167" s="71">
-        <v>110</v>
-      </c>
-      <c r="E167" s="71">
-        <v>10</v>
-      </c>
-      <c r="F167" s="72"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D167" s="60">
+        <v>37</v>
+      </c>
+      <c r="E167" s="6">
+        <v>6</v>
+      </c>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A168" s="12"/>
       <c r="B168" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C168" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D168" s="6">
-        <v>2</v>
+      <c r="D168" s="60">
+        <v>55</v>
       </c>
       <c r="E168" s="6">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F168" s="9"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B169" s="6" t="s">
-        <v>215</v>
+      <c r="B169" s="71" t="s">
+        <v>213</v>
       </c>
       <c r="C169" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="D169" s="6">
-        <v>350</v>
-      </c>
-      <c r="E169" s="6">
-        <v>14</v>
-      </c>
-      <c r="F169" s="9"/>
+      <c r="D169" s="71">
+        <v>110</v>
+      </c>
+      <c r="E169" s="71">
+        <v>10</v>
+      </c>
+      <c r="F169" s="72"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B170" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C170" s="71" t="s">
         <v>210</v>
       </c>
       <c r="D170" s="6">
+        <v>2</v>
+      </c>
+      <c r="E170" s="6">
+        <v>70</v>
+      </c>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D171" s="6">
+        <v>350</v>
+      </c>
+      <c r="E171" s="6">
+        <v>14</v>
+      </c>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B172" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C172" s="71" t="s">
+        <v>210</v>
+      </c>
+      <c r="D172" s="6">
         <v>150</v>
       </c>
-      <c r="E170" s="60">
+      <c r="E172" s="60">
         <v>6</v>
       </c>
-      <c r="F170" s="9"/>
-    </row>
-    <row r="172" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A172" s="20" t="s">
+      <c r="F172" s="9"/>
+    </row>
+    <row r="174" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B172" s="21"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="20"/>
-      <c r="E172" s="20"/>
-      <c r="F172" s="22"/>
-      <c r="G172" s="22"/>
-      <c r="H172" s="22"/>
-      <c r="I172" s="22"/>
-      <c r="J172" s="22"/>
-    </row>
-    <row r="173" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="68" t="s">
+      <c r="B174" s="21"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="20"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="22"/>
+      <c r="H174" s="22"/>
+      <c r="I174" s="22"/>
+      <c r="J174" s="22"/>
+    </row>
+    <row r="175" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="68"/>
-      <c r="I173" s="68"/>
-      <c r="J173" s="68"/>
-      <c r="K173" s="23"/>
-    </row>
-    <row r="174" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="66" t="s">
-        <v>219</v>
-      </c>
-      <c r="B174" s="66"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="66"/>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="66"/>
-      <c r="K174" s="23"/>
-    </row>
-    <row r="175" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="66" t="s">
-        <v>220</v>
-      </c>
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="66"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="66"/>
-      <c r="H175" s="66"/>
-      <c r="I175" s="66"/>
-      <c r="J175" s="66"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="68"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="68"/>
       <c r="K175" s="23"/>
     </row>
     <row r="176" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B176" s="66"/>
       <c r="C176" s="66"/>
@@ -4549,7 +4608,7 @@
     </row>
     <row r="177" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="66" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B177" s="66"/>
       <c r="C177" s="66"/>
@@ -4564,7 +4623,7 @@
     </row>
     <row r="178" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="66" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B178" s="66"/>
       <c r="C178" s="66"/>
@@ -4577,156 +4636,186 @@
       <c r="J178" s="66"/>
       <c r="K178" s="23"/>
     </row>
-    <row r="179" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="24"/>
-      <c r="B179" s="25"/>
-      <c r="C179" s="26"/>
-      <c r="D179" s="26"/>
-      <c r="E179" s="26"/>
-      <c r="F179" s="26"/>
-      <c r="G179" s="26"/>
-      <c r="H179" s="26"/>
-      <c r="I179" s="26"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="2"/>
-    </row>
-    <row r="180" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="67" t="s">
+    <row r="179" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="B179" s="66"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="66"/>
+      <c r="E179" s="66"/>
+      <c r="F179" s="66"/>
+      <c r="G179" s="66"/>
+      <c r="H179" s="66"/>
+      <c r="I179" s="66"/>
+      <c r="J179" s="66"/>
+      <c r="K179" s="23"/>
+    </row>
+    <row r="180" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B180" s="66"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="66"/>
+      <c r="E180" s="66"/>
+      <c r="F180" s="66"/>
+      <c r="G180" s="66"/>
+      <c r="H180" s="66"/>
+      <c r="I180" s="66"/>
+      <c r="J180" s="66"/>
+      <c r="K180" s="23"/>
+    </row>
+    <row r="181" spans="1:11" ht="66.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A181" s="24"/>
+      <c r="B181" s="25"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="26"/>
+      <c r="E181" s="26"/>
+      <c r="F181" s="26"/>
+      <c r="G181" s="26"/>
+      <c r="H181" s="26"/>
+      <c r="I181" s="26"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="B180" s="67"/>
-      <c r="C180" s="67"/>
-      <c r="D180" s="67"/>
-      <c r="E180" s="67"/>
-      <c r="F180" s="67"/>
-      <c r="G180" s="67"/>
-      <c r="H180" s="67"/>
-      <c r="I180" s="67"/>
-      <c r="J180" s="67"/>
-      <c r="K180" s="23"/>
-    </row>
-    <row r="181" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="65" t="s">
+      <c r="B182" s="67"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="67"/>
+      <c r="F182" s="67"/>
+      <c r="G182" s="67"/>
+      <c r="H182" s="67"/>
+      <c r="I182" s="67"/>
+      <c r="J182" s="67"/>
+      <c r="K182" s="23"/>
+    </row>
+    <row r="183" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B181" s="65"/>
-      <c r="C181" s="65"/>
-      <c r="D181" s="65"/>
-      <c r="E181" s="65"/>
-      <c r="F181" s="65"/>
-      <c r="G181" s="65"/>
-      <c r="H181" s="65"/>
-      <c r="I181" s="65"/>
-      <c r="J181" s="65"/>
-      <c r="K181" s="23"/>
-    </row>
-    <row r="182" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A182" s="19"/>
-      <c r="B182" s="27"/>
-      <c r="C182" s="27"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="19"/>
-      <c r="I182" s="19"/>
-      <c r="J182" s="19"/>
-    </row>
-    <row r="183" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="19" t="s">
+      <c r="B183" s="65"/>
+      <c r="C183" s="65"/>
+      <c r="D183" s="65"/>
+      <c r="E183" s="65"/>
+      <c r="F183" s="65"/>
+      <c r="G183" s="65"/>
+      <c r="H183" s="65"/>
+      <c r="I183" s="65"/>
+      <c r="J183" s="65"/>
+      <c r="K183" s="23"/>
+    </row>
+    <row r="184" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19"/>
+      <c r="B184" s="27"/>
+      <c r="C184" s="27"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="19"/>
+      <c r="I184" s="19"/>
+      <c r="J184" s="19"/>
+    </row>
+    <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A185" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="B183" s="28"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
-      <c r="E183" s="28"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="28"/>
-      <c r="H183" s="28"/>
-      <c r="I183" s="29"/>
-      <c r="J183" s="29"/>
-    </row>
-    <row r="184" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A184" s="19" t="s">
+      <c r="B185" s="28"/>
+      <c r="C185" s="28"/>
+      <c r="D185" s="28"/>
+      <c r="E185" s="28"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="28"/>
+      <c r="H185" s="28"/>
+      <c r="I185" s="29"/>
+      <c r="J185" s="29"/>
+    </row>
+    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A186" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B184" s="30"/>
-      <c r="C184" s="31"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="32"/>
-      <c r="I184" s="32"/>
-      <c r="J184" s="32"/>
-    </row>
-    <row r="185" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A185" s="19"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="31"/>
-      <c r="D185" s="31"/>
-      <c r="E185" s="31"/>
-      <c r="F185" s="19"/>
-      <c r="G185" s="33"/>
-      <c r="H185" s="32"/>
-      <c r="I185" s="32"/>
-      <c r="J185" s="32"/>
-    </row>
-    <row r="186" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A186" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="B186" s="35"/>
-      <c r="C186" s="36"/>
-      <c r="D186" s="36"/>
-      <c r="E186" s="36"/>
-      <c r="F186" s="34"/>
-      <c r="G186" s="35"/>
-      <c r="H186" s="37"/>
-      <c r="I186" s="37"/>
-      <c r="J186" s="37"/>
+      <c r="B186" s="30"/>
+      <c r="C186" s="31"/>
+      <c r="D186" s="31"/>
+      <c r="E186" s="31"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="30"/>
+      <c r="H186" s="32"/>
+      <c r="I186" s="32"/>
+      <c r="J186" s="32"/>
     </row>
     <row r="187" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A187" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="B187" s="38"/>
-      <c r="C187" s="34"/>
-      <c r="D187" s="34"/>
-      <c r="E187" s="34"/>
-      <c r="F187" s="34"/>
-      <c r="G187" s="34"/>
-      <c r="H187" s="34"/>
-      <c r="I187" s="34"/>
-      <c r="J187" s="34"/>
+      <c r="A187" s="19"/>
+      <c r="B187" s="33"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="33"/>
+      <c r="H187" s="32"/>
+      <c r="I187" s="32"/>
+      <c r="J187" s="32"/>
     </row>
     <row r="188" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A188" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="B188" s="38"/>
-      <c r="C188" s="34"/>
-      <c r="D188" s="34"/>
-      <c r="E188" s="34"/>
+        <v>228</v>
+      </c>
+      <c r="B188" s="35"/>
+      <c r="C188" s="36"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
       <c r="F188" s="34"/>
-      <c r="G188" s="34"/>
-      <c r="H188" s="34"/>
-      <c r="I188" s="34"/>
-      <c r="J188" s="34"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="37"/>
+      <c r="I188" s="37"/>
+      <c r="J188" s="37"/>
     </row>
     <row r="189" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A189" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="B189" s="38"/>
+      <c r="C189" s="34"/>
+      <c r="D189" s="34"/>
+      <c r="E189" s="34"/>
+      <c r="F189" s="34"/>
+      <c r="G189" s="34"/>
+      <c r="H189" s="34"/>
+      <c r="I189" s="34"/>
+      <c r="J189" s="34"/>
+    </row>
+    <row r="190" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A190" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="B190" s="38"/>
+      <c r="C190" s="34"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="34"/>
+      <c r="F190" s="34"/>
+      <c r="G190" s="34"/>
+      <c r="H190" s="34"/>
+      <c r="I190" s="34"/>
+      <c r="J190" s="34"/>
+    </row>
+    <row r="191" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A191" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="B189" s="39"/>
-      <c r="C189" s="39"/>
-      <c r="D189" s="40"/>
-      <c r="E189" s="40"/>
-      <c r="F189" s="41"/>
-      <c r="G189" s="39"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="40"/>
-      <c r="J189" s="40"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="39"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="40"/>
+      <c r="F191" s="41"/>
+      <c r="G191" s="39"/>
+      <c r="H191" s="39"/>
+      <c r="I191" s="40"/>
+      <c r="J191" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4756,15 +4845,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036A983072543384F9BCFE8C82479F37C" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="260ac4455f49819b1f7803ae5e501695">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9de65812-d31a-4375-88c2-e0618de13189" xmlns:ns3="89032030-40c4-4eb4-9593-726575b50101" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a8e30f348d6cea7fc97f735324fe25" ns2:_="" ns3:_="">
     <xsd:import namespace="9de65812-d31a-4375-88c2-e0618de13189"/>
@@ -4981,6 +5061,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{555CA93E-D6A4-443B-9774-E366D1A67415}">
   <ds:schemaRefs>
@@ -4992,14 +5081,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF56F7A-9C3C-446C-9DCE-744CDD4E4429}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0102274-A80F-4BB3-B7A8-EC7F1E0F2078}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5016,4 +5097,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECF56F7A-9C3C-446C-9DCE-744CDD4E4429}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>